--- a/src/main/resources/gegevens.xlsx
+++ b/src/main/resources/gegevens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="6225" windowWidth="15120" xWindow="120" yWindow="105"/>
+    <workbookView windowHeight="6225" windowWidth="15120" xWindow="120" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="personen" r:id="rId1" sheetId="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>mg</t>
+  </si>
+  <si>
+    <t>kaas</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>bami</t>
+  </si>
+  <si>
+    <t>banaan</t>
   </si>
 </sst>
 </file>
@@ -384,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,6 +419,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -414,28 +471,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -448,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,18 +533,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>6.0</v>
+      <c r="B2">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/gegevens.xlsx
+++ b/src/main/resources/gegevens.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="6225" windowWidth="15120" xWindow="120" yWindow="105"/>
+    <workbookView activeTab="1" windowHeight="6228" windowWidth="15120" xWindow="120" yWindow="108"/>
   </bookViews>
   <sheets>
     <sheet name="personen" r:id="rId1" sheetId="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -48,30 +48,36 @@
     <t>gebruikerId</t>
   </si>
   <si>
-    <t>getTestIngredient</t>
+    <t>kaas</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>bami</t>
+  </si>
+  <si>
+    <t>banaan</t>
+  </si>
+  <si>
+    <t>gerecht1</t>
   </si>
   <si>
     <t>mg</t>
   </si>
   <si>
-    <t>kaas</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>bami</t>
-  </si>
-  <si>
-    <t>banaan</t>
+    <t>gerecht2</t>
+  </si>
+  <si>
+    <t>gerecht3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,11 +114,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -186,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -395,20 +408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="9.88671875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,67 +432,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2.0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6"/>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,6 +509,66 @@
       </c>
       <c r="F1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -505,21 +577,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -533,18 +605,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>6</v>
+      <c r="B2" t="n">
+        <v>2.0</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/gegevens.xlsx
+++ b/src/main/resources/gegevens.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="6228" windowWidth="15120" xWindow="120" yWindow="108"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="6228"/>
   </bookViews>
   <sheets>
-    <sheet name="personen" r:id="rId1" sheetId="1"/>
-    <sheet name="gerechten" r:id="rId2" sheetId="2"/>
-    <sheet name="ingredienten" r:id="rId3" sheetId="3"/>
+    <sheet name="personen" sheetId="1" r:id="rId1"/>
+    <sheet name="gerechten" sheetId="2" r:id="rId2"/>
+    <sheet name="ingredienten" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -70,13 +70,27 @@
   </si>
   <si>
     <t>gerecht3</t>
+  </si>
+  <si>
+    <t>gerecht4</t>
+  </si>
+  <si>
+    <t>gerecht5</t>
+  </si>
+  <si>
+    <t>gerecht6</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>goor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,16 +118,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Standaard" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -127,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -288,7 +302,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -297,13 +311,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +327,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +336,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,12 +355,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -377,7 +391,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -396,7 +410,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -408,17 +422,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -476,17 +490,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,9 +536,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -524,16 +549,16 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -544,16 +569,16 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -564,31 +589,91 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.0</v>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -605,91 +690,175 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.0</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>2.0</v>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
-        <v>2.0</v>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
-        <v>2.0</v>
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
-        <v>3.0</v>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>